--- a/quizsheets/m11_mada_ml_models_1_student.xlsx
+++ b/quizsheets/m11_mada_ml_models_1_student.xlsx
@@ -414,12 +414,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NEED NEW QUESTION</t>
+          <t>Picking the right kind of performance metric applies to any model, not just machine learning models.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Report just the letter</t>
+          <t>Report True or False.</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEED NEW QUESTION</t>
+          <t>Which tidymodels package lets you access different types of (machine learning) models? A) yardstick, B) recipes, C) parsnip, D) purrr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/quizsheets/m11_mada_ml_models_1_student.xlsx
+++ b/quizsheets/m11_mada_ml_models_1_student.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Report True or False.</t>
+          <t>Report just the letter</t>
         </is>
       </c>
     </row>

--- a/quizsheets/m11_mada_ml_models_1_student.xlsx
+++ b/quizsheets/m11_mada_ml_models_1_student.xlsx
@@ -414,12 +414,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NEED NEW QUESTION</t>
+          <t>Picking the right kind of performance metric applies to any model, not just machine learning models.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Report just the letter</t>
+          <t>Report True or False.</t>
         </is>
       </c>
     </row>
@@ -448,12 +448,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEED NEW QUESTION</t>
+          <t>Which tidymodels package lets you access different types of (machine learning) models? A) yardstick, B) recipes, C) parsnip, D) purrr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Report True or False.</t>
+          <t>Report just the letter</t>
         </is>
       </c>
     </row>
